--- a/test_data/test_api_data.xlsx
+++ b/test_data/test_api_data.xlsx
@@ -57,7 +57,7 @@
     <t>{'code': '10001', 'status': 1, 'msg': '注册成功', 'data': None}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': None, 'status': 1, 'msg': '注册成功'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '注册成功'}</t>
   </si>
   <si>
     <t>PASS</t>
@@ -72,7 +72,7 @@
     <t>{'code': '20108', 'status': 0, 'msg': '密码长度必须为6~18', 'data': None}</t>
   </si>
   <si>
-    <t>{'code': '20108', 'data': None, 'status': 0, 'msg': '密码长度必须为6~18'}</t>
+    <t>{'status': 0, 'code': '20108', 'data': None, 'msg': '密码长度必须为6~18'}</t>
   </si>
   <si>
     <t>输入错误的密码登录</t>
@@ -87,7 +87,7 @@
     <t>{'code': '20111', 'status': 0, 'msg': '用户名或密码错误', 'data': None}</t>
   </si>
   <si>
-    <t>{'code': '20111', 'data': None, 'status': 0, 'msg': '用户名或密码错误'}</t>
+    <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
   </si>
   <si>
     <t>正常登录</t>
@@ -96,7 +96,7 @@
     <t>{'code': '10001', 'status': 1, 'msg': '登录成功', 'data': None}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': None, 'status': 1, 'msg': '登录成功'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
   </si>
   <si>
     <t>充值100</t>
@@ -111,7 +111,7 @@
     <t>{'code': '10001', 'status': 1, 'msg': '充值成功', 'data': None}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'type': '1', 'mobilephone': '18800000074', 'regname': '小蜜蜂', 'regtime': '2018-08-06 16:08:11.0', 'id': 22037, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '100.00'}, 'status': 1, 'msg': '充值成功'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'id': 22710, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '18800000075', 'leaveamount': '100.00', 'type': '1', 'regtime': '2018-08-09 01:42:05.0'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -126,7 +126,7 @@
     <t>{'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额', 'status': 0}</t>
   </si>
   <si>
-    <t>{'code': '20117', 'data': None, 'status': 0, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
+    <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
   </si>
   <si>
     <t>提现100</t>
@@ -135,7 +135,7 @@
     <t>/futureloan/mvc/api/member/withdraw</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'type': '1', 'mobilephone': '18800000074', 'regname': '小蜜蜂', 'regtime': '2018-08-06 16:08:11.0', 'id': 22037, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '0.00'}, 'status': 1, 'msg': '取现成功'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'id': 22710, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '18800000075', 'leaveamount': '0.00', 'type': '1', 'regtime': '2018-08-09 01:42:05.0'}, 'msg': '取现成功'}</t>
   </si>
   <si>
     <t>提现-100</t>
@@ -906,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="6" t="n">
-        <v>18800000075</v>
+        <v>18800000076</v>
       </c>
     </row>
   </sheetData>
